--- a/biology/Zoologie/Chèvre_naine/Chèvre_naine.xlsx
+++ b/biology/Zoologie/Chèvre_naine/Chèvre_naine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_naine</t>
+          <t>Chèvre_naine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chèvre naine, aussi appelée chèvre miniature, est de plus en plus présente dans les foyers comme animal de compagnie ou comme animal d'ornement. Elle est aussi utilisée pour débroussailler des parcelles de terrains un peu difficiles. Ainsi, elle mange des ronces, des plantes ligneuses, des arbustes, et même des orties lorsque celles-ci sont hautes et sèches.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_naine</t>
+          <t>Chèvre_naine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chèvre naine est issue de croisements entre les plus petits sujets, généralement originaires du Sénégal et du Tibet où les conditions de vies difficiles (climats hostiles, nourriture rare) ont influencé sa petite taille et sa rusticité.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_naine</t>
+          <t>Chèvre_naine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,23 +559,207 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Morphologie
-La chèvre naine est généralement cornue, même si certains individus peuvent être naturellement sans cornes (motte).
-Poids
-Variant fortement selon la taille et le gabarit de l'animal, les poids se répartissent généralement de cette manière :
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chèvre naine est généralement cornue, même si certains individus peuvent être naturellement sans cornes (motte).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poids</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Variant fortement selon la taille et le gabarit de l'animal, les poids se répartissent généralement de cette manière :
 18 à 29 kg pour les mâles ;
-15 à 24 kg pour les femelles.
-Taille
-La chèvre miniature toise 45 à 55 cm au garrot pour les femelles et jusqu'à 57 cm pour les mâles. A moins de 42 cm au garrot, elle est dite "toy", entre 43 cm et 45 cm elle est "extra-naine", entre 46 cm et 50 cm elle est "naine". Au-delà elle est "semi-naine".
-A savoir qu'une chèvre grandit jusqu'à 3-4 ans. Mesurer sa chèvre de 1 an à 45 cm ne signifie donc pas qu'elle est "extra-naine", il faut attendre ses 3-4 ans pour connaître sa taille définitive et donc sa catégorie [1]! 
-Robes
-Comme ce n'est pas une race reconnue, toutes les robes peuvent potentiellement être rencontrées (d'autant que les apports d'autres races sont fréquents). Les trois robes les plus fréquentes au sein de la race sont le noir, le chamoisé et le sauvage. On observe également de très nombreux individus pie et rouan.
-Quelques exemples
+15 à 24 kg pour les femelles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chèvre miniature toise 45 à 55 cm au garrot pour les femelles et jusqu'à 57 cm pour les mâles. A moins de 42 cm au garrot, elle est dite "toy", entre 43 cm et 45 cm elle est "extra-naine", entre 46 cm et 50 cm elle est "naine". Au-delà elle est "semi-naine".
+A savoir qu'une chèvre grandit jusqu'à 3-4 ans. Mesurer sa chèvre de 1 an à 45 cm ne signifie donc pas qu'elle est "extra-naine", il faut attendre ses 3-4 ans pour connaître sa taille définitive et donc sa catégorie ! 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Robes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce n'est pas une race reconnue, toutes les robes peuvent potentiellement être rencontrées (d'autant que les apports d'autres races sont fréquents). Les trois robes les plus fréquentes au sein de la race sont le noir, le chamoisé et le sauvage. On observe également de très nombreux individus pie et rouan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Robes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Chevreau pie chamoisé
 			Chèvre noire
 			chèvre sauvage
-Alimentation
-Les caprins sont des animaux très gourmands. Leur alimentation de base est l'herbe. C'est pour cela que durant l’hiver ou pendant les périodes où l'herbe est manquante, le foin peut remplacer l’herbe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les caprins sont des animaux très gourmands. Leur alimentation de base est l'herbe. C'est pour cela que durant l’hiver ou pendant les périodes où l'herbe est manquante, le foin peut remplacer l’herbe.
 De plus, elles doivent avoir en permanence une pierre à sel pour les minéraux à disposition.
 Les aliments principaux toxiques sont :
 les pommes de terre
@@ -576,31 +774,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ch%C3%A8vre_naine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité sexuelle de la chèvre naine varie fortement en fonction des individus et peut ainsi survenir entre 3 et 12 mois. Généralement, cela se produit vers 6-7 mois. Il est déconseillé de mettre à la reproduction une chèvre âgée de moins de 18 mois, cela peut ralentir sa croissance et/ou provoquer des problèmes lors de la mise bas.
 À l'inverse des chèvres de grande taille dont la reproduction est saisonnée, les chèvres naines peuvent mettre bas à n'importe quelle période de l'année. Il est donc très important pour leur santé de séparer les mâles des femelles hors période de saillies pour ne pas épuiser ces dernières. Comme pour les autres chèvres, la durée de gestation est d'environ 150 jours (5 mois).
@@ -608,37 +808,74 @@
 La chèvre naine est moins prolifique que sa cousine de grande taille et met généralement au monde un chevreau lors de sa première portée, puis deux lors des mises bas suivantes, toutefois il n'est pas impossible que des chèvres naines donnent naissance à plus de deux chevreaux.
 Elle s'isole alors du reste du troupeau pour plus de tranquillité mais jamais trop loin car la solitude est un danger pour elles dans la nature. En élevage, il faut veiller à ce que la température ne soit pas trop basse lors des mises bas et dans le cas contraire prévoir une lampe chauffante afin de maximiser les chances de survie des petits.
 À la naissance, le chevreau ne met pas très longtemps à se lever et à chercher les pis de sa mère. Son sevrage peut être réalisé dès ses 3 mois.
-Stérilisation
-Souvent pratiquée chez les mâles, elle permet de supprimer les odeurs, les caractéristiques morphologiques du bouc entier (pas de barbiche, cornes moins épaisses et moins longues) et de tempérer le caractère.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ch%C3%A8vre_naine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Stérilisation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent pratiquée chez les mâles, elle permet de supprimer les odeurs, les caractéristiques morphologiques du bouc entier (pas de barbiche, cornes moins épaisses et moins longues) et de tempérer le caractère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si c'est un excellent animal de compagnie avec lequel on peut créer une belle complicité, la chèvre miniature est un animal d'extérieur. Il est ainsi fortement déconseillé de la détenir au sein d'une maison.
 En tant qu'herbivore, la chèvre passe environ 8h par jour à s'alimenter de foin ou d'herbe. Ceci nécessite une certaine surface de prairie, on compte au minimum 400 m2 par chèvre miniature. Cette donnée est très importante, elle permet aussi une bonne gestion du parasitisme.
@@ -648,31 +885,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ch%C3%A8vre_naine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chèvre_naine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vre_naine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Les Minis d'Ac, « Accueillir des chèvres naines chez soi », sur Les Minis d'Ac - élevage de chèvres naines, 1er janvier 2023 (consulté le 27 février 2024)
